--- a/output/0/tRNA-Ala-TGC-4-1.xlsx
+++ b/output/0/tRNA-Ala-TGC-4-1.xlsx
@@ -12,108 +12,318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="104">
   <si>
     <t>chr12</t>
   </si>
   <si>
-    <t>125424552</t>
-  </si>
-  <si>
-    <t>125424575</t>
+    <t>125424191</t>
+  </si>
+  <si>
+    <t>125424214</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>125424194</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GGTTCGATTCCCCGACGGGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>61% (50)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>125424217</t>
+  </si>
+  <si>
+    <t>125424197</t>
+  </si>
+  <si>
+    <t>CGGGGTTCGATTCCCCGACG</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>92% (65)</t>
+  </si>
+  <si>
+    <t>99% (88)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>125424195</t>
+  </si>
+  <si>
+    <t>125424218</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>125424572</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GAGGCCCCGGGTTCAATCCC</t>
+    <t>125424215</t>
+  </si>
+  <si>
+    <t>CCCGTCGGGGAATCGAACCC</t>
   </si>
   <si>
     <t>CGG</t>
   </si>
   <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>74% (57)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>125424198</t>
+  </si>
+  <si>
+    <t>CCGGGGTTCGATTCCCCGAC</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>82% (62)</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>125424196</t>
+  </si>
+  <si>
+    <t>125424219</t>
+  </si>
+  <si>
+    <t>125424199</t>
+  </si>
+  <si>
+    <t>ACCGGGGTTCGATTCCCCGA</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>125424211</t>
+  </si>
+  <si>
+    <t>125424234</t>
+  </si>
+  <si>
+    <t>125424231</t>
+  </si>
+  <si>
+    <t>ACCCCGGTCTCCCGCGTGAC</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>72% (56)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>125424212</t>
+  </si>
+  <si>
+    <t>125424235</t>
+  </si>
+  <si>
+    <t>GCCTGTCACGCGGGAGACCG</t>
+  </si>
+  <si>
+    <t>66% (55)</t>
+  </si>
+  <si>
+    <t>89% (68)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>125424213</t>
+  </si>
+  <si>
+    <t>125424236</t>
+  </si>
+  <si>
+    <t>125424216</t>
+  </si>
+  <si>
+    <t>CGCCTGTCACGCGGGAGACC</t>
+  </si>
+  <si>
+    <t>14% (35)</t>
+  </si>
+  <si>
+    <t>29% (35)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>125424237</t>
+  </si>
+  <si>
+    <t>CCGGTCTCCCGCGTGACAGG</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>CCGCCTGTCACGCGGGAGAC</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>91% (70)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>125424238</t>
+  </si>
+  <si>
+    <t>CGGTCTCCCGCGTGACAGGC</t>
   </si>
   <si>
     <t>38% (46)</t>
   </si>
   <si>
+    <t>59% (49)</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>125424239</t>
+  </si>
+  <si>
+    <t>GGTCTCCCGCGTGACAGGCG</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
     <t>80% (61)</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>125424557</t>
-  </si>
-  <si>
-    <t>125424580</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>125424560</t>
-  </si>
-  <si>
-    <t>AGATGCCGGGGATTGAACCC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>50% (50)</t>
-  </si>
-  <si>
-    <t>50% (45)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>125424558</t>
-  </si>
-  <si>
-    <t>125424581</t>
-  </si>
-  <si>
-    <t>125424561</t>
-  </si>
-  <si>
-    <t>GAGATGCCGGGGATTGAACC</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>72</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>125424221</t>
+  </si>
+  <si>
+    <t>125424244</t>
+  </si>
+  <si>
+    <t>125424224</t>
+  </si>
+  <si>
+    <t>AGTATCCCCGCCTGTCACGC</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>23% (32)</t>
+  </si>
+  <si>
+    <t>125424222</t>
+  </si>
+  <si>
+    <t>125424245</t>
+  </si>
+  <si>
+    <t>125424225</t>
+  </si>
+  <si>
+    <t>GAGTATCCCCGCCTGTCACG</t>
+  </si>
+  <si>
+    <t>57% (48)</t>
+  </si>
+  <si>
+    <t>125424240</t>
+  </si>
+  <si>
+    <t>125424263</t>
+  </si>
+  <si>
+    <t>125424260</t>
+  </si>
+  <si>
+    <t>TACTCACCACTATACTAACG</t>
+  </si>
+  <si>
+    <t>98% (71)</t>
+  </si>
+  <si>
+    <t>16% (27)</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
 </sst>
 </file>
@@ -158,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,10 +391,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -228,52 +438,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -287,19 +497,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -314,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -332,7 +542,7 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -346,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -358,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -373,22 +583,22 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
         <v>14</v>
@@ -405,22 +615,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -432,25 +642,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -464,22 +674,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -491,7 +701,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>9</v>
@@ -500,21 +710,552 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
       </c>
       <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
         <v>3</v>
       </c>
     </row>
